--- a/src/main/resources/MSIGInputExcel.xlsx
+++ b/src/main/resources/MSIGInputExcel.xlsx
@@ -2294,7 +2294,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2374,10 +2374,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E2" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -2404,10 +2404,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E3" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2434,10 +2434,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E4" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -2464,10 +2464,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E5" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2494,10 +2494,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E6" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -2524,10 +2524,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E7" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -2554,10 +2554,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E8" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -2584,10 +2584,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E9" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -2614,10 +2614,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E10" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2644,10 +2644,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E11" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -2674,10 +2674,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E12" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -2704,10 +2704,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E13" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -2734,10 +2734,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E14" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2764,10 +2764,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E15" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2794,10 +2794,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E16" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2824,10 +2824,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E17" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2854,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E18" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -2884,10 +2884,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E19" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2914,10 +2914,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E20" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2944,10 +2944,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E21" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2974,10 +2974,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E22" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -3004,10 +3004,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E23" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -3034,10 +3034,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E24" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -3064,10 +3064,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E25" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -3094,10 +3094,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E26" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -3124,10 +3124,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E27" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3154,10 +3154,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E28" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -3184,10 +3184,10 @@
         <v>17</v>
       </c>
       <c r="D29" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E29" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -3214,10 +3214,10 @@
         <v>20</v>
       </c>
       <c r="D30" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E30" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -3244,10 +3244,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E31" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -3274,10 +3274,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E32" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -3304,10 +3304,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E33" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -3334,10 +3334,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E34" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -3364,10 +3364,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E35" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -3394,10 +3394,10 @@
         <v>20</v>
       </c>
       <c r="D36" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E36" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -3424,10 +3424,10 @@
         <v>20</v>
       </c>
       <c r="D37" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E37" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -3454,10 +3454,10 @@
         <v>17</v>
       </c>
       <c r="D38" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E38" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -3484,10 +3484,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E39" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -3514,10 +3514,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E40" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -3544,10 +3544,10 @@
         <v>20</v>
       </c>
       <c r="D41" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E41" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3574,10 +3574,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E42" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -3604,10 +3604,10 @@
         <v>20</v>
       </c>
       <c r="D43" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E43" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -3634,10 +3634,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E44" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -3664,10 +3664,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E45" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -3694,10 +3694,10 @@
         <v>20</v>
       </c>
       <c r="D46" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E46" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -3724,10 +3724,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E47" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -3754,10 +3754,10 @@
         <v>20</v>
       </c>
       <c r="D48" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E48" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -3784,10 +3784,10 @@
         <v>17</v>
       </c>
       <c r="D49" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E49" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -3814,10 +3814,10 @@
         <v>20</v>
       </c>
       <c r="D50" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E50" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -3844,10 +3844,10 @@
         <v>17</v>
       </c>
       <c r="D51" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E51" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -3874,10 +3874,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E52" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -3904,10 +3904,10 @@
         <v>17</v>
       </c>
       <c r="D53" s="17">
-        <v>45930</v>
+        <v>45940</v>
       </c>
       <c r="E53" s="18">
-        <v>46295</v>
+        <v>46305</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>

--- a/src/main/resources/MSIGInputExcel.xlsx
+++ b/src/main/resources/MSIGInputExcel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="335">
   <si>
     <t>Iteration</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Mitsui Sumitomo Insurance Company of America</t>
   </si>
   <si>
-    <t>46818.00</t>
+    <t>47818.00</t>
   </si>
   <si>
     <t>CA</t>
@@ -99,307 +99,307 @@
     <t>Mitsui Sumitomo Insurance USA Inc</t>
   </si>
   <si>
-    <t>41200.00</t>
+    <t>42200.00</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
-    <t>130450.00</t>
+    <t>131450.00</t>
   </si>
   <si>
     <t>FL</t>
   </si>
   <si>
-    <t>78086.00</t>
+    <t>79086.00</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>827.00</t>
+    <t>1827.00</t>
   </si>
   <si>
     <t>HI</t>
   </si>
   <si>
-    <t>189173.00</t>
+    <t>190173.00</t>
   </si>
   <si>
     <t>KS</t>
   </si>
   <si>
-    <t>136005.00</t>
+    <t>137005.00</t>
   </si>
   <si>
     <t>KY</t>
   </si>
   <si>
-    <t>650.00</t>
+    <t>1650.00</t>
   </si>
   <si>
     <t>LA</t>
   </si>
   <si>
-    <t>132911.00</t>
+    <t>133911.00</t>
   </si>
   <si>
     <t>NY</t>
   </si>
   <si>
-    <t>100.00</t>
+    <t>1100.00</t>
   </si>
   <si>
     <t>PR</t>
   </si>
   <si>
-    <t>799.00</t>
+    <t>1799.00</t>
   </si>
   <si>
     <t>RI</t>
   </si>
   <si>
-    <t>814.00</t>
+    <t>1814.00</t>
   </si>
   <si>
     <t>TX</t>
   </si>
   <si>
-    <t>774.00</t>
+    <t>1774.00</t>
   </si>
   <si>
     <t>VA</t>
   </si>
   <si>
-    <t>11966.00</t>
+    <t>12966.00</t>
   </si>
   <si>
     <t>VT</t>
   </si>
   <si>
-    <t>782.00</t>
+    <t>1782.00</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>670.00</t>
+    <t>1670.00</t>
   </si>
   <si>
     <t>WY</t>
   </si>
   <si>
-    <t>20667.00</t>
+    <t>21667.00</t>
   </si>
   <si>
     <t>AL</t>
   </si>
   <si>
-    <t>500308.00</t>
+    <t>494242.00</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>597380.00</t>
+    <t>693764.00</t>
   </si>
   <si>
     <t>AZ</t>
   </si>
   <si>
-    <t>919709.00</t>
+    <t>910202.00</t>
   </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>880199.00</t>
+    <t>872283.00</t>
   </si>
   <si>
     <t>CT</t>
   </si>
   <si>
-    <t>4665591.00</t>
+    <t>4503848.00</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>3329216.00</t>
+    <t>3213409.00</t>
   </si>
   <si>
     <t>IA</t>
   </si>
   <si>
-    <t>3773610.00</t>
+    <t>3628544.00</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>883380.00</t>
+    <t>849283.00</t>
   </si>
   <si>
     <t>IL</t>
   </si>
   <si>
-    <t>1326622.00</t>
+    <t>1285736.00</t>
   </si>
   <si>
     <t>IN</t>
   </si>
   <si>
-    <t>3517546.00</t>
+    <t>3395127.00</t>
   </si>
   <si>
     <t>MA</t>
   </si>
   <si>
-    <t>5344669.00</t>
+    <t>5160312.00</t>
   </si>
   <si>
     <t>MD</t>
   </si>
   <si>
-    <t>1472979.00</t>
+    <t>1415453.00</t>
   </si>
   <si>
     <t>ME</t>
   </si>
   <si>
-    <t>698011.00</t>
+    <t>671286.00</t>
   </si>
   <si>
     <t>MI</t>
   </si>
   <si>
-    <t>2741014.00</t>
+    <t>2645280.00</t>
   </si>
   <si>
     <t>MN</t>
   </si>
   <si>
-    <t>241020.00</t>
+    <t>240549.00</t>
   </si>
   <si>
     <t>MO</t>
   </si>
   <si>
-    <t>35556660.00</t>
+    <t>34317724.00</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>6545015.00</t>
+    <t>6331428.00</t>
   </si>
   <si>
     <t>MT</t>
   </si>
   <si>
-    <t>4467312.00</t>
+    <t>4316883.00</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>808421.00</t>
+    <t>777306.00</t>
   </si>
   <si>
     <t>ND</t>
   </si>
   <si>
-    <t>2222600.00</t>
+    <t>2135294.00</t>
   </si>
   <si>
     <t>NE</t>
   </si>
   <si>
-    <t>1121826.00</t>
+    <t>1079406.00</t>
   </si>
   <si>
     <t>NH</t>
   </si>
   <si>
-    <t>4831486.00</t>
+    <t>4663954.00</t>
   </si>
   <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>15728814.00</t>
+    <t>15240845.00</t>
   </si>
   <si>
     <t>NM</t>
   </si>
   <si>
-    <t>2913114.00</t>
+    <t>2812505.00</t>
   </si>
   <si>
     <t>NV</t>
   </si>
   <si>
-    <t>2278912.00</t>
+    <t>2202665.00</t>
   </si>
   <si>
     <t>OH</t>
   </si>
   <si>
-    <t>545405.00</t>
+    <t>534879.00</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>924970.00</t>
+    <t>894265.00</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>2839583.00</t>
+    <t>2743232.00</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>5053329.00</t>
+    <t>4884002.00</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>2501498.00</t>
+    <t>2415246.00</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>2235434.00</t>
+    <t>2147614.00</t>
   </si>
   <si>
     <t>TN</t>
   </si>
   <si>
-    <t>2612922.00</t>
+    <t>2512781.00</t>
   </si>
   <si>
     <t>UT</t>
   </si>
   <si>
-    <t>5837100.00</t>
+    <t>5637977.00</t>
   </si>
   <si>
     <t>WI</t>
   </si>
   <si>
-    <t>1683375.00</t>
+    <t>1621648.00</t>
   </si>
   <si>
     <t>WV</t>
   </si>
   <si>
-    <t>1328323.00</t>
+    <t>1285777.00</t>
   </si>
   <si>
     <t>StateRegionCode</t>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>Number of Model Homes</t>
+  </si>
+  <si>
+    <t>100.00</t>
   </si>
   <si>
     <t>10020</t>
@@ -2294,7 +2297,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E53"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -14743,7 +14746,7 @@
         <v>171</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>179</v>
@@ -14818,7 +14821,7 @@
         <v>171</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>179</v>
@@ -15241,10 +15244,10 @@
         <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>294</v>
@@ -15274,7 +15277,7 @@
         <v>171</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -15282,7 +15285,7 @@
         <v>187</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>176</v>
@@ -15306,7 +15309,7 @@
         <v>171</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -15681,10 +15684,10 @@
         <v>171</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>320</v>
@@ -15696,25 +15699,25 @@
         <v>237</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -15754,10 +15757,10 @@
         <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>320</v>
@@ -15769,25 +15772,25 @@
         <v>237</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -15827,10 +15830,10 @@
         <v>171</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>320</v>
@@ -15842,25 +15845,25 @@
         <v>237</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -15900,10 +15903,10 @@
         <v>171</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>320</v>
@@ -15915,25 +15918,25 @@
         <v>237</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -15973,10 +15976,10 @@
         <v>171</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>320</v>
@@ -15988,25 +15991,25 @@
         <v>237</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -16046,10 +16049,10 @@
         <v>171</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>320</v>
@@ -16061,25 +16064,25 @@
         <v>237</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -16119,10 +16122,10 @@
         <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>320</v>
@@ -16134,25 +16137,25 @@
         <v>237</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -16192,10 +16195,10 @@
         <v>171</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>320</v>
@@ -16207,25 +16210,25 @@
         <v>237</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -16265,10 +16268,10 @@
         <v>171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>320</v>
@@ -16280,25 +16283,25 @@
         <v>237</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -16338,10 +16341,10 @@
         <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>320</v>
@@ -16353,25 +16356,25 @@
         <v>237</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -16411,10 +16414,10 @@
         <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>320</v>
@@ -16426,25 +16429,25 @@
         <v>237</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -16484,10 +16487,10 @@
         <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>320</v>
@@ -16499,25 +16502,25 @@
         <v>237</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -16557,10 +16560,10 @@
         <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>320</v>
@@ -16572,25 +16575,25 @@
         <v>237</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -16630,10 +16633,10 @@
         <v>171</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>320</v>
@@ -16645,25 +16648,25 @@
         <v>237</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -16703,10 +16706,10 @@
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>320</v>
@@ -16718,25 +16721,25 @@
         <v>237</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -16776,10 +16779,10 @@
         <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>320</v>
@@ -16791,25 +16794,25 @@
         <v>237</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -16849,10 +16852,10 @@
         <v>171</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>320</v>
@@ -16864,25 +16867,25 @@
         <v>237</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -16922,10 +16925,10 @@
         <v>171</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>320</v>
@@ -16937,25 +16940,25 @@
         <v>237</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -16995,10 +16998,10 @@
         <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>320</v>
@@ -17010,25 +17013,25 @@
         <v>237</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -17068,10 +17071,10 @@
         <v>171</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>320</v>
@@ -17083,25 +17086,25 @@
         <v>237</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -17141,10 +17144,10 @@
         <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>320</v>
@@ -17156,25 +17159,25 @@
         <v>237</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -17214,10 +17217,10 @@
         <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>320</v>
@@ -17229,25 +17232,25 @@
         <v>237</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -17287,10 +17290,10 @@
         <v>171</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>320</v>
@@ -17302,25 +17305,25 @@
         <v>237</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -17360,10 +17363,10 @@
         <v>171</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>320</v>
@@ -17375,25 +17378,25 @@
         <v>237</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -17433,10 +17436,10 @@
         <v>171</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>320</v>
@@ -17448,25 +17451,25 @@
         <v>237</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -17506,10 +17509,10 @@
         <v>171</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>320</v>
@@ -17521,25 +17524,25 @@
         <v>237</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -17579,10 +17582,10 @@
         <v>171</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>320</v>
@@ -17594,25 +17597,25 @@
         <v>237</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -17652,10 +17655,10 @@
         <v>171</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>320</v>
@@ -17667,25 +17670,25 @@
         <v>237</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -17725,10 +17728,10 @@
         <v>171</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>320</v>
@@ -17740,25 +17743,25 @@
         <v>237</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -17798,10 +17801,10 @@
         <v>171</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>320</v>
@@ -17813,25 +17816,25 @@
         <v>237</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -17871,10 +17874,10 @@
         <v>171</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>320</v>
@@ -17886,25 +17889,25 @@
         <v>237</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -17944,10 +17947,10 @@
         <v>171</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>320</v>
@@ -17959,25 +17962,25 @@
         <v>237</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -18017,10 +18020,10 @@
         <v>171</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>320</v>
@@ -18032,25 +18035,25 @@
         <v>237</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -18090,10 +18093,10 @@
         <v>171</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>320</v>
@@ -18105,25 +18108,25 @@
         <v>237</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -18163,10 +18166,10 @@
         <v>171</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>320</v>
@@ -18178,25 +18181,25 @@
         <v>237</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>176</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
